--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AE/20/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AE/20/seed2/result_data_KNN.xlsx
@@ -474,12 +474,12 @@
         <v>-7.6</v>
       </c>
       <c r="E2" t="n">
-        <v>16.6</v>
+        <v>16.458</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-21.902</v>
+        <v>-21.879</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-21.592</v>
+        <v>-21.659</v>
       </c>
       <c r="B14" t="n">
         <v>4.04</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.706</v>
+        <v>-22.051</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -746,7 +746,7 @@
         <v>-6.27</v>
       </c>
       <c r="E18" t="n">
-        <v>16.312</v>
+        <v>16.481</v>
       </c>
     </row>
     <row r="19">
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.272</v>
+        <v>-19.947</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.566</v>
+        <v>-20.302</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -848,12 +848,12 @@
         <v>-7.7</v>
       </c>
       <c r="E24" t="n">
-        <v>16.818</v>
+        <v>16.963</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.748</v>
+        <v>-21.632</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -865,12 +865,12 @@
         <v>-7.4</v>
       </c>
       <c r="E25" t="n">
-        <v>17.19</v>
+        <v>17.259</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.52</v>
+        <v>-21.089</v>
       </c>
       <c r="B26" t="n">
         <v>6.56</v>
@@ -899,7 +899,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>16.428</v>
+        <v>16.55</v>
       </c>
     </row>
     <row r="28">
@@ -921,7 +921,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-20.988</v>
+        <v>-21.04</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -950,7 +950,7 @@
         <v>-10.18</v>
       </c>
       <c r="E30" t="n">
-        <v>16.252</v>
+        <v>16.466</v>
       </c>
     </row>
     <row r="31">
@@ -967,7 +967,7 @@
         <v>-9.77</v>
       </c>
       <c r="E31" t="n">
-        <v>17.09</v>
+        <v>16.605</v>
       </c>
     </row>
     <row r="32">
@@ -1103,12 +1103,12 @@
         <v>-8.93</v>
       </c>
       <c r="E39" t="n">
-        <v>16.284</v>
+        <v>16.552</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-19.454</v>
+        <v>-20.174</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1154,7 +1154,7 @@
         <v>-7.75</v>
       </c>
       <c r="E42" t="n">
-        <v>16.864</v>
+        <v>16.782</v>
       </c>
     </row>
     <row r="43">
@@ -1256,7 +1256,7 @@
         <v>-6.88</v>
       </c>
       <c r="E48" t="n">
-        <v>17.448</v>
+        <v>17.179</v>
       </c>
     </row>
     <row r="49">
@@ -1307,7 +1307,7 @@
         <v>-7.18</v>
       </c>
       <c r="E51" t="n">
-        <v>16.962</v>
+        <v>16.617</v>
       </c>
     </row>
     <row r="52">
@@ -1324,12 +1324,12 @@
         <v>-6.93</v>
       </c>
       <c r="E52" t="n">
-        <v>16.478</v>
+        <v>16.543</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-21.82</v>
+        <v>-21.692</v>
       </c>
       <c r="B53" t="n">
         <v>5.82</v>
@@ -1375,7 +1375,7 @@
         <v>-10.06</v>
       </c>
       <c r="E55" t="n">
-        <v>16.688</v>
+        <v>16.413</v>
       </c>
     </row>
     <row r="56">
@@ -1392,12 +1392,12 @@
         <v>-8.92</v>
       </c>
       <c r="E56" t="n">
-        <v>16.172</v>
+        <v>16.303</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.214</v>
+        <v>-22.213</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1409,7 +1409,7 @@
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.766</v>
+        <v>16.453</v>
       </c>
     </row>
     <row r="58">
@@ -1431,7 +1431,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.066</v>
+        <v>-22.5</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1460,7 +1460,7 @@
         <v>-9.630000000000001</v>
       </c>
       <c r="E60" t="n">
-        <v>16.336</v>
+        <v>16.592</v>
       </c>
     </row>
     <row r="61">
@@ -1533,7 +1533,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-21.184</v>
+        <v>-21.533</v>
       </c>
       <c r="B65" t="n">
         <v>6.69</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.608</v>
+        <v>-21.601</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1681,7 +1681,7 @@
         <v>-6.42</v>
       </c>
       <c r="E73" t="n">
-        <v>16.558</v>
+        <v>16.572</v>
       </c>
     </row>
     <row r="74">
@@ -1698,7 +1698,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E74" t="n">
-        <v>16.908</v>
+        <v>16.653</v>
       </c>
     </row>
     <row r="75">
@@ -1771,7 +1771,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-21</v>
+        <v>-21.167</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.876</v>
+        <v>-22.035</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1953,7 +1953,7 @@
         <v>-7</v>
       </c>
       <c r="E89" t="n">
-        <v>17.128</v>
+        <v>17.362</v>
       </c>
     </row>
     <row r="90">
@@ -1970,12 +1970,12 @@
         <v>-8.890000000000001</v>
       </c>
       <c r="E90" t="n">
-        <v>16.254</v>
+        <v>16.23</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.506</v>
+        <v>-21.533</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -2004,12 +2004,12 @@
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>17.158</v>
+        <v>17.493</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.698</v>
+        <v>-21.22</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-21.794</v>
+        <v>-21.955</v>
       </c>
       <c r="B100" t="n">
         <v>5.09</v>
